--- a/data/trans_dic/P15D$urgencias-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15D$urgencias-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.8368277482902129</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5310414457723204</v>
+        <v>0.5310414457723202</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.5243173553822302</v>
@@ -697,7 +697,7 @@
         <v>0.7361632497719468</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.6938782010639764</v>
+        <v>0.6938782010639762</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3605203853534099</v>
+        <v>0.3794457035921022</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5215152379488369</v>
+        <v>0.5199841564939444</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5383917132434233</v>
+        <v>0.5356796944981166</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4118141227781378</v>
+        <v>0.4156937167965584</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1813232419259506</v>
+        <v>0.1712465574669983</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.356900653918941</v>
+        <v>0.374575172097642</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6117442491094918</v>
+        <v>0.6161198787709101</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1968609010292631</v>
+        <v>0.2084481994099592</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3808266506978596</v>
+        <v>0.3839570319983658</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5105652929294543</v>
+        <v>0.5200026150232627</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6128883159264861</v>
+        <v>0.6115238406750467</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4495973382050245</v>
+        <v>0.4170558756960617</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7310059741173527</v>
+        <v>0.7104168234001818</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7513720821997038</v>
+        <v>0.7604806921441849</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8288008218647274</v>
+        <v>0.8135320715509843</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7359502229751734</v>
+        <v>0.8010786717595247</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7278822086174989</v>
+        <v>0.7174147817395009</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9485709997704816</v>
+        <v>0.9484746038811962</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.794754736288226</v>
+        <v>0.8411582045242026</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6685682457808128</v>
+        <v>0.6934760912061572</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7021664278313805</v>
+        <v>0.7077184770170469</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8378455374903792</v>
+        <v>0.8320784533604562</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.87756387318016</v>
+        <v>0.8729451277264009</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.6521643701858199</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5621354683743651</v>
+        <v>0.5621354683743652</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7858862841934404</v>
@@ -821,7 +821,7 @@
         <v>0.6138469402760807</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4954817468955282</v>
+        <v>0.4954817468955281</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5712439482844326</v>
@@ -833,7 +833,7 @@
         <v>0.6403471807796379</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.5410726501248826</v>
+        <v>0.5410726501248827</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2935656636396679</v>
+        <v>0.3007165741793347</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5187190544242849</v>
+        <v>0.5117956566523255</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5092083415033628</v>
+        <v>0.513601676056916</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2981294406256513</v>
+        <v>0.3005465994975796</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5553122871435247</v>
+        <v>0.5515540216413082</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3883886622888286</v>
+        <v>0.3792619129525241</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.396129737937535</v>
+        <v>0.3880529478084423</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2461514548636544</v>
+        <v>0.238843665036246</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.428405968819162</v>
+        <v>0.4162822529015228</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5141511881809732</v>
+        <v>0.5140936830291524</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5242141147370034</v>
+        <v>0.515729357756404</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3584356633848623</v>
+        <v>0.3582504112469101</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6343937865037501</v>
+        <v>0.6467403346820596</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7394937254261387</v>
+        <v>0.7341309528151448</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7581294450511256</v>
+        <v>0.7701408267071053</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.795868705248951</v>
+        <v>0.7930105972574913</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9472710375517862</v>
+        <v>0.9463511611993861</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7206067899720729</v>
+        <v>0.7151492022914816</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8132320920124717</v>
+        <v>0.7938965529223098</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7468984302849609</v>
+        <v>0.7506820823030931</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.70096519580179</v>
+        <v>0.6965547914891677</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6918972955964926</v>
+        <v>0.6958781969135686</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7464460405297898</v>
+        <v>0.7414682749843701</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.712645970289335</v>
+        <v>0.7046228742889072</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.5549892407516331</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.6329540930239065</v>
+        <v>0.6329540930239067</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.456399697338862</v>
@@ -969,7 +969,7 @@
         <v>0.6081916243527586</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.7087058323390361</v>
+        <v>0.7087058323390358</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1278399118549806</v>
+        <v>0.1257596464598194</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.372543264273406</v>
+        <v>0.3786242715627765</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4805500644041147</v>
+        <v>0.4558803995213581</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6025333647373505</v>
+        <v>0.6102611536941472</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3143026100397836</v>
+        <v>0.2813758924620638</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3803918792053135</v>
+        <v>0.376928068984639</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3471873903728184</v>
+        <v>0.3349086183088741</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4818585359699692</v>
+        <v>0.462728425813034</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2772541799725304</v>
+        <v>0.2766713944934833</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4359348762175876</v>
+        <v>0.4402610120218326</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4830696835138842</v>
+        <v>0.4776169848023675</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6050277044997638</v>
+        <v>0.5978665762741999</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6499016669181792</v>
+        <v>0.6155431848558487</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6786963969878946</v>
+        <v>0.6818942014028241</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8102309174143738</v>
+        <v>0.8089506820140842</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8859932300939659</v>
+        <v>0.8985358572229082</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8519758620437463</v>
+        <v>0.8443867291638485</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.761985937651649</v>
+        <v>0.7372691175878996</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7671320700667252</v>
+        <v>0.7486043834447949</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7633847887454565</v>
+        <v>0.7647818698731745</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6646836489087756</v>
+        <v>0.6373191938315405</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6526877650609206</v>
+        <v>0.666847940954536</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7323962103100317</v>
+        <v>0.7399339403368296</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8089989688812783</v>
+        <v>0.8067731024528916</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.6042774919165748</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6201037869950269</v>
+        <v>0.6201037869950268</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.6512135508765354</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1481812397449144</v>
+        <v>0.1407110076356316</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3196993483807934</v>
+        <v>0.3316489102322401</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4038595039050225</v>
+        <v>0.4032992808600087</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4766788336376368</v>
+        <v>0.4744867207795431</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2875055972801755</v>
+        <v>0.3162948687257294</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.416995573015225</v>
+        <v>0.4210005102368668</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5276584868283751</v>
+        <v>0.559868582137639</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4114654617114109</v>
+        <v>0.4108775177154777</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2659068827701944</v>
+        <v>0.2691784250635951</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4102183978413286</v>
+        <v>0.4198535808974341</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5354020517607277</v>
+        <v>0.5181380064456811</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4954039621879845</v>
+        <v>0.497570532217937</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6261292728770397</v>
+        <v>0.6020900319628602</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6555288182191942</v>
+        <v>0.6640280787261624</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7873429756105299</v>
+        <v>0.7715767521536825</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7343016874151658</v>
+        <v>0.7380643288408298</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9091670451638858</v>
+        <v>0.9092182478705181</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7827897096438168</v>
+        <v>0.776060372845916</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9124187908274589</v>
+        <v>0.9121767497175085</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6957534333625707</v>
+        <v>0.6772495306377652</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6501347568350728</v>
+        <v>0.649589568033262</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6636301128955983</v>
+        <v>0.6618584675258888</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7988856207171116</v>
+        <v>0.7869797232597868</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6902654354043729</v>
+        <v>0.6855406584770332</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.6856075053973808</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.6416251299185697</v>
+        <v>0.6416251299185693</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.5082886753484549</v>
@@ -1241,7 +1241,7 @@
         <v>0.6612501279093397</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.5783127291557066</v>
+        <v>0.5783127291557065</v>
       </c>
     </row>
     <row r="17">
@@ -1255,37 +1255,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.419868226086246</v>
+        <v>0.3471300750745491</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3037554257640487</v>
+        <v>0.3516828478141051</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3285832641985735</v>
+        <v>0.3300925244645577</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3764580571669234</v>
+        <v>0.3743214775894694</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4844112285241918</v>
+        <v>0.4886074246274756</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4826708050084541</v>
+        <v>0.4850759860759004</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5337672328808646</v>
+        <v>0.5124202850562308</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2992245502319759</v>
+        <v>0.2791615951488355</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.511236598646211</v>
+        <v>0.5230945942311088</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4990975806528157</v>
+        <v>0.5043032131667909</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4708935347891886</v>
+        <v>0.4780440088913036</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6719937069646695</v>
+        <v>0.685697454431018</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9213587196991212</v>
+        <v>0.9202172397736779</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8431931351327907</v>
+        <v>0.8437034707961497</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6749142720245821</v>
+        <v>0.686871726065504</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9112965136352472</v>
+        <v>0.907473624099969</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8022751056112056</v>
+        <v>0.8009847841579891</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8379233136420062</v>
+        <v>0.8368870522629663</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7607115408342485</v>
+        <v>0.7553851127093595</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7174303869459394</v>
+        <v>0.7328393221415979</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.8011298543565305</v>
+        <v>0.7876972605245968</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8060142939848747</v>
+        <v>0.7931743114389839</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.675946434221782</v>
+        <v>0.6759423002367715</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.5172176096550819</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.4856085977430739</v>
+        <v>0.4856085977430738</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.6052651656116211</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1805817896285732</v>
+        <v>0.188710792578569</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1835395338170947</v>
+        <v>0.1845681291313162</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.08008722741215142</v>
+        <v>0.08282976043137329</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2401448072949327</v>
+        <v>0.2257575368513995</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2102168461353465</v>
+        <v>0.2036849901058355</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1891438565461171</v>
+        <v>0.2208882530429963</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3382768545318068</v>
+        <v>0.3342928274128441</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3766327154304354</v>
+        <v>0.3573177401175606</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3386010562431593</v>
+        <v>0.3442228590806179</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2414508008924406</v>
+        <v>0.2360531512868282</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3086773845165587</v>
+        <v>0.3185961339251848</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3587431518404183</v>
+        <v>0.3533999592278635</v>
       </c>
     </row>
     <row r="21">
@@ -1435,37 +1435,37 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6731740920009431</v>
+        <v>0.6705552706207867</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6431773948438915</v>
+        <v>0.6437208331674661</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6326435128742646</v>
+        <v>0.6239460811631597</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8218818455987558</v>
+        <v>0.8187061255323466</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5668896883859103</v>
+        <v>0.6053284933830619</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7282837336100898</v>
+        <v>0.7077755486977283</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6054733197820287</v>
+        <v>0.6135583251516291</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.8220472208334597</v>
+        <v>0.8225249030086482</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5289062358708477</v>
+        <v>0.5428568434219189</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6474512899940787</v>
+        <v>0.6322841419760015</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.5621637364509272</v>
+        <v>0.5680969633027972</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.3000694909899438</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3418608226822671</v>
+        <v>0.3418608226822673</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.6960159616258998</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1812724246210486</v>
+        <v>0.1785049958026343</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3931153168032259</v>
+        <v>0.4248102529046522</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1083487769726404</v>
+        <v>0.1118833114747844</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1839302507812696</v>
+        <v>0.1883266004670859</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4899264613253946</v>
+        <v>0.4871318334359119</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3866180567281039</v>
+        <v>0.3870886081073376</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4796735870706205</v>
+        <v>0.4822531667889329</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2861847091241331</v>
+        <v>0.2834799533484653</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4884245413109999</v>
+        <v>0.5026151340396589</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4294484654842031</v>
+        <v>0.433258055217865</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4162490931557332</v>
+        <v>0.407962720878541</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2816224295409757</v>
+        <v>0.2885026574604556</v>
       </c>
     </row>
     <row r="24">
@@ -1571,37 +1571,37 @@
         <v>1</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8124254881512911</v>
+        <v>0.8140068914909749</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5670185811220558</v>
+        <v>0.5824430294274648</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5034155684750994</v>
+        <v>0.5127878717769979</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8959483275868835</v>
+        <v>0.8962562288702944</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6580695864155054</v>
+        <v>0.6727727118304251</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8099824636856467</v>
+        <v>0.8129704514357092</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4778657209801185</v>
+        <v>0.4801868342192162</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8486668767224387</v>
+        <v>0.8446953372063231</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6442207190936864</v>
+        <v>0.6520710216667672</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.6998793647681762</v>
+        <v>0.7077551353951026</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4486182686298105</v>
+        <v>0.4443227569596892</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.6063818797338738</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.5986508241173486</v>
+        <v>0.5986508241173487</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.6489744523220928</v>
@@ -1637,7 +1637,7 @@
         <v>0.6500861036753899</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.5173194707825806</v>
+        <v>0.5173194707825804</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.5430698463968071</v>
@@ -1649,7 +1649,7 @@
         <v>0.6277089854221737</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.5569840114204124</v>
+        <v>0.5569840114204125</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3768428770374856</v>
+        <v>0.371205066504221</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5212754344707771</v>
+        <v>0.523833856203814</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.524311462102766</v>
+        <v>0.5445165667130176</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5300567223033462</v>
+        <v>0.5249042444834812</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.5477534266758802</v>
+        <v>0.5442485278049736</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.4912829525620363</v>
+        <v>0.4935502705324988</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.5825148803480666</v>
+        <v>0.5711940730056578</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.4621661712979104</v>
+        <v>0.4589487915012882</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.4697622848356307</v>
+        <v>0.474900059923738</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.5255218581946692</v>
+        <v>0.5242585808434899</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.5782197415127176</v>
+        <v>0.5765086778659047</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.5084816416038828</v>
+        <v>0.5083893107531646</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5507816396693321</v>
+        <v>0.5538676501407658</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6434830684548101</v>
+        <v>0.6456117542444992</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6721329609166048</v>
+        <v>0.6720927707870871</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.6698773122892978</v>
+        <v>0.6713859851094178</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7449623015142078</v>
+        <v>0.7433971074985669</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.6155883024107116</v>
+        <v>0.6156886981798232</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.7214831630641856</v>
+        <v>0.7147024799837746</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.5813431349736726</v>
+        <v>0.5726842390595484</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.6118178842034363</v>
+        <v>0.615520220945219</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.6134758129920901</v>
+        <v>0.6127045430043535</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.6777400866226355</v>
+        <v>0.6770091137982209</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.5974611030245389</v>
+        <v>0.6021244847676025</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12155</v>
+        <v>12793</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>31098</v>
+        <v>31007</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>23678</v>
+        <v>23559</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8523</v>
+        <v>8604</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1920</v>
+        <v>1813</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10943</v>
+        <v>11485</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11173</v>
+        <v>11253</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4447</v>
+        <v>4709</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>16871</v>
+        <v>17010</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>46099</v>
+        <v>46952</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>38149</v>
+        <v>38064</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>19463</v>
+        <v>18054</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24646</v>
+        <v>23952</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>44804</v>
+        <v>45347</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>36451</v>
+        <v>35779</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>20697</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7792</v>
+        <v>8481</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>22318</v>
+        <v>21997</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>17325</v>
+        <v>17323</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17955</v>
+        <v>19003</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>29619</v>
+        <v>30722</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>63399</v>
+        <v>63901</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>52151</v>
+        <v>51792</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>37989</v>
+        <v>37789</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10256</v>
+        <v>10506</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>42701</v>
+        <v>42131</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>25897</v>
+        <v>26120</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9897</v>
+        <v>9977</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>10303</v>
+        <v>10233</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14770</v>
+        <v>14423</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8984</v>
+        <v>8801</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3775</v>
+        <v>3663</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>22915</v>
+        <v>22267</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>61878</v>
+        <v>61871</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>38549</v>
+        <v>37925</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>17396</v>
+        <v>17387</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22163</v>
+        <v>22595</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>60875</v>
+        <v>60434</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38556</v>
+        <v>39167</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>26420</v>
+        <v>26325</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17575</v>
+        <v>17558</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>27405</v>
+        <v>27197</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>18443</v>
+        <v>18005</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>11455</v>
+        <v>11513</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>37494</v>
+        <v>37258</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>83269</v>
+        <v>83748</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>54891</v>
+        <v>54525</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>34587</v>
+        <v>34197</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1909</v>
+        <v>1878</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19897</v>
+        <v>20222</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17232</v>
+        <v>16347</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>23227</v>
+        <v>23525</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4217</v>
+        <v>3775</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>11179</v>
+        <v>11077</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8696</v>
+        <v>8389</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14681</v>
+        <v>14098</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7859</v>
+        <v>7843</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>36094</v>
+        <v>36452</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>29422</v>
+        <v>29090</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>41757</v>
+        <v>41262</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9704</v>
+        <v>9191</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>36248</v>
+        <v>36419</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29053</v>
+        <v>29007</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>34154</v>
+        <v>34638</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11430</v>
+        <v>11328</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>22393</v>
+        <v>21667</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>19215</v>
+        <v>18751</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23259</v>
+        <v>23301</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>18842</v>
+        <v>18066</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>54040</v>
+        <v>55212</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>44607</v>
+        <v>45066</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>55834</v>
+        <v>55680</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2895</v>
+        <v>2749</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11561</v>
+        <v>11993</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11644</v>
+        <v>11628</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>26663</v>
+        <v>26540</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2779</v>
+        <v>3057</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>14589</v>
+        <v>14729</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12920</v>
+        <v>13708</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>13421</v>
+        <v>13402</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>7765</v>
+        <v>7861</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>29185</v>
+        <v>29870</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>28547</v>
+        <v>27626</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>43869</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12233</v>
+        <v>11764</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>23705</v>
+        <v>24012</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>22701</v>
+        <v>22246</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>41073</v>
+        <v>41284</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8787</v>
+        <v>8788</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>27386</v>
+        <v>27150</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>22341</v>
+        <v>22335</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>22693</v>
+        <v>22090</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>18986</v>
+        <v>18970</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>47214</v>
+        <v>47088</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>42595</v>
+        <v>41960</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>61124</v>
+        <v>60706</v>
       </c>
     </row>
     <row r="20">
@@ -2734,37 +2734,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5425</v>
+        <v>4485</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4249</v>
+        <v>4920</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10349</v>
+        <v>10397</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3716</v>
+        <v>3695</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>20228</v>
+        <v>20403</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>14653</v>
+        <v>14726</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>20445</v>
+        <v>19628</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5758</v>
+        <v>5372</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>27953</v>
+        <v>28602</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>22133</v>
+        <v>22364</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>32868</v>
+        <v>33367</v>
       </c>
     </row>
     <row r="23">
@@ -2775,37 +2775,37 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6297</v>
+        <v>6426</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11905</v>
+        <v>11890</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>11795</v>
+        <v>11803</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>21257</v>
+        <v>21634</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>8995</v>
+        <v>8958</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>33501</v>
+        <v>33447</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>25438</v>
+        <v>25406</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>29138</v>
+        <v>28934</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>13805</v>
+        <v>14101</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>43804</v>
+        <v>43070</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>35744</v>
+        <v>35175</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>47181</v>
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>840</v>
+        <v>878</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3175</v>
+        <v>3193</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>876</v>
+        <v>905</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4356</v>
+        <v>4095</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1916</v>
+        <v>1856</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>4791</v>
+        <v>5595</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>9912</v>
+        <v>9795</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>13637</v>
+        <v>12938</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>4662</v>
+        <v>4739</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>10293</v>
+        <v>10063</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>12419</v>
+        <v>12818</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>19496</v>
+        <v>19206</v>
       </c>
     </row>
     <row r="27">
@@ -2958,37 +2958,37 @@
         <v>4653</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11645</v>
+        <v>11599</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7031</v>
+        <v>7037</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11474</v>
+        <v>11317</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>7491</v>
+        <v>7462</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>14360</v>
+        <v>15334</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>21339</v>
+        <v>20739</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>21924</v>
+        <v>22216</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>11317</v>
+        <v>11324</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>22547</v>
+        <v>23141</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>26049</v>
+        <v>25439</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>30551</v>
+        <v>30874</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1075</v>
+        <v>1059</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>8661</v>
+        <v>9359</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1645</v>
+        <v>1699</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>4233</v>
+        <v>4334</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>11072</v>
+        <v>11009</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>20952</v>
+        <v>20977</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>19250</v>
+        <v>19353</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>16214</v>
+        <v>16060</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>13936</v>
+        <v>14341</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>32734</v>
+        <v>33025</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>23025</v>
+        <v>22567</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>22436</v>
+        <v>22984</v>
       </c>
     </row>
     <row r="31">
@@ -3138,37 +3138,37 @@
         <v>5933</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>17899</v>
+        <v>17934</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>8610</v>
+        <v>8844</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>11585</v>
+        <v>11801</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>20248</v>
+        <v>20255</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>35662</v>
+        <v>36459</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>32505</v>
+        <v>32625</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>27073</v>
+        <v>27205</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>24215</v>
+        <v>24102</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>49105</v>
+        <v>49703</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>38715</v>
+        <v>39150</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>35740</v>
+        <v>35398</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>46381</v>
+        <v>45687</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>147922</v>
+        <v>148648</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>104670</v>
+        <v>108704</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>117155</v>
+        <v>116016</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>51383</v>
+        <v>51054</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>124955</v>
+        <v>125532</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>110833</v>
+        <v>108679</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>107306</v>
+        <v>106559</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>101883</v>
+        <v>102998</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>282790</v>
+        <v>282110</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>225448</v>
+        <v>224781</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>230445</v>
+        <v>230404</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>67789</v>
+        <v>68168</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>182601</v>
+        <v>183205</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>134181</v>
+        <v>134173</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>148058</v>
+        <v>148392</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>69882</v>
+        <v>69735</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>156571</v>
+        <v>156597</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>137274</v>
+        <v>135984</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>134976</v>
+        <v>132966</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>132693</v>
+        <v>133496</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>330119</v>
+        <v>329704</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>264251</v>
+        <v>263966</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>270771</v>
+        <v>272885</v>
       </c>
     </row>
     <row r="36">
